--- a/data/outputs/数学期刊(下)_altmetric/55Revista Matemática Complutense.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/55Revista Matemática Complutense.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE29"/>
+  <dimension ref="A1:CF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1276,6 +1284,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1525,6 +1536,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1780,6 +1794,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2029,6 +2046,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2276,6 +2296,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2519,6 +2542,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2772,6 +2798,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3027,6 +3056,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3276,6 +3308,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3531,6 +3566,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3770,6 +3808,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4027,6 +4068,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4284,6 +4328,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4539,6 +4586,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4782,6 +4832,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5035,6 +5088,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5286,6 +5342,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5531,6 +5590,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5780,6 +5842,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6035,6 +6100,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6278,6 +6346,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6535,6 +6606,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6792,6 +6866,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7041,6 +7118,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7284,6 +7364,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7527,6 +7610,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7764,6 +7850,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
